--- a/tests/VocabMatcherTests.xlsx
+++ b/tests/VocabMatcherTests.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="151">
   <si>
     <t>Model Name</t>
   </si>
@@ -271,6 +271,33 @@
     <t>dollar after dog$</t>
   </si>
   <si>
+    <t>End Test 11</t>
+  </si>
+  <si>
+    <t>nucleic acid</t>
+  </si>
+  <si>
+    <t>Should not replace</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>End Test 12</t>
+  </si>
+  <si>
+    <t>batch record</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
     <t>TestMiddle</t>
   </si>
   <si>
@@ -358,6 +385,24 @@
     <t>Lowercase middle</t>
   </si>
   <si>
+    <t>Translate Test7</t>
+  </si>
+  <si>
+    <t>Uppercase middle</t>
+  </si>
+  <si>
+    <t>Translate Test8</t>
+  </si>
+  <si>
+    <t>Many dogs</t>
+  </si>
+  <si>
+    <t>DOG and DOG and DOG</t>
+  </si>
+  <si>
+    <t>TestMatchVocab</t>
+  </si>
+  <si>
     <t>Another DOG In Middle</t>
   </si>
   <si>
@@ -365,18 +410,6 @@
   </si>
   <si>
     <t>Titlecase middle</t>
-  </si>
-  <si>
-    <t>Translate Test7</t>
-  </si>
-  <si>
-    <t>Uppercase middle</t>
-  </si>
-  <si>
-    <t>Translate Test8</t>
-  </si>
-  <si>
-    <t>Many dogs</t>
   </si>
   <si>
     <t>DOG And DOG And DOG</t>
@@ -437,7 +470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -452,9 +485,6 @@
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -476,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -494,9 +524,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -893,10 +920,10 @@
       <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -907,19 +934,19 @@
       <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -930,7 +957,7 @@
       <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -939,10 +966,10 @@
       <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -950,7 +977,7 @@
       <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -959,18 +986,18 @@
       <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -982,13 +1009,13 @@
       <c r="D13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1005,13 +1032,13 @@
       <c r="D14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1028,113 +1055,113 @@
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="F16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1143,21 +1170,21 @@
       <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="5" t="s">
+      <c r="F20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -1166,21 +1193,21 @@
       <c r="D21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1189,21 +1216,21 @@
       <c r="D22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -1223,10 +1250,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1246,10 +1273,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1258,7 +1285,7 @@
       <c r="D25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -1269,10 +1296,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>80</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1281,7 +1308,7 @@
       <c r="D26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>79</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -1292,10 +1319,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -1304,123 +1331,123 @@
       <c r="D27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="F28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="3" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G29" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>42</v>
+      <c r="D30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="E31" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>42</v>
+        <v>92</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>41</v>
@@ -1431,19 +1458,19 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>41</v>
@@ -1454,19 +1481,19 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>91</v>
+        <v>45</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>41</v>
@@ -1477,19 +1504,19 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>41</v>
@@ -1500,19 +1527,19 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>41</v>
@@ -1523,19 +1550,19 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>96</v>
+        <v>55</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>41</v>
@@ -1546,157 +1573,157 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>101</v>
+        <v>58</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>101</v>
+        <v>61</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>108</v>
+      <c r="G40" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="C42" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>42</v>
+      <c r="D42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>41</v>
@@ -1707,19 +1734,19 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>41</v>
@@ -1730,19 +1757,19 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>41</v>
@@ -1753,116 +1780,323 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>44</v>
+        <v>107</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>42</v>
+        <v>109</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>112</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>114</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>115</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>42</v>
+        <v>116</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>118</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>119</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E56" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G51" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="3" t="s">
         <v>42</v>
       </c>
     </row>
